--- a/Implementation/configs/m.xlsx
+++ b/Implementation/configs/m.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014"/>
   </bookViews>
   <sheets>
     <sheet name="fbr" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>fbr</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>rld</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>caret</t>
+  </si>
+  <si>
+    <t>cfs</t>
   </si>
 </sst>
 </file>
@@ -382,18 +391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -406,8 +415,11 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>10</v>
       </c>
@@ -420,8 +432,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>11</v>
       </c>
@@ -434,8 +449,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>12</v>
       </c>
@@ -447,6 +465,60 @@
       </c>
       <c r="D4">
         <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -462,9 +534,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -472,7 +544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>20</v>
       </c>
@@ -493,9 +565,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -503,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>30</v>
       </c>
@@ -524,9 +596,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -534,7 +606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>80</v>
       </c>
